--- a/excel/Описание_работ/7/История/KS.xlsx
+++ b/excel/Описание_работ/7/История/KS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Код</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>История родного края</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A28" sqref="A28:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,9 +751,14 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
